--- a/Data Manualisasi.xlsx
+++ b/Data Manualisasi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\rekomendasi-guru-les\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\brainy\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,14 +14,14 @@
   <sheets>
     <sheet name="Dataset" sheetId="1" r:id="rId1"/>
     <sheet name="Kriteria" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Weighted Product" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
   <si>
     <t>DATA GURU LES PRIVAT</t>
   </si>
@@ -86,9 +86,6 @@
     <t xml:space="preserve">Sertifikat </t>
   </si>
   <si>
-    <t>Banyak Kursus</t>
-  </si>
-  <si>
     <t>Lama Bekerja (bulan)</t>
   </si>
   <si>
@@ -132,6 +129,15 @@
   </si>
   <si>
     <t>Jumlah</t>
+  </si>
+  <si>
+    <t>Vektor S(i)</t>
+  </si>
+  <si>
+    <t>V(i)</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
@@ -275,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -283,15 +289,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -303,16 +300,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -322,6 +319,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -627,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,49 +652,45 @@
     <col min="4" max="4" width="23.42578125" customWidth="1"/>
     <col min="5" max="5" width="20.42578125" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" customWidth="1"/>
-    <col min="7" max="8" width="25" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="25" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="10" t="s">
+      <c r="C3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G3" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -693,7 +701,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2">
         <v>4</v>
@@ -704,11 +712,8 @@
       <c r="G4" s="2">
         <v>14</v>
       </c>
-      <c r="H4" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -719,7 +724,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2">
         <v>4</v>
@@ -730,11 +735,8 @@
       <c r="G5" s="2">
         <v>14</v>
       </c>
-      <c r="H5" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -745,7 +747,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E6" s="2">
         <v>4</v>
@@ -756,11 +758,8 @@
       <c r="G6" s="2">
         <v>8</v>
       </c>
-      <c r="H6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -771,7 +770,7 @@
         <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2">
         <v>5</v>
@@ -782,11 +781,8 @@
       <c r="G7" s="2">
         <v>2</v>
       </c>
-      <c r="H7" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -797,22 +793,19 @@
         <v>36</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E8" s="2">
         <v>5</v>
       </c>
       <c r="F8" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G8" s="2">
         <v>12</v>
       </c>
-      <c r="H8" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -823,7 +816,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E9" s="2">
         <v>3</v>
@@ -834,11 +827,8 @@
       <c r="G9" s="2">
         <v>5</v>
       </c>
-      <c r="H9" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -849,7 +839,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="2">
         <v>4</v>
@@ -860,11 +850,8 @@
       <c r="G10" s="2">
         <v>4</v>
       </c>
-      <c r="H10" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -875,7 +862,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="2">
         <v>4</v>
@@ -886,11 +873,8 @@
       <c r="G11" s="2">
         <v>5</v>
       </c>
-      <c r="H11" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -901,7 +885,7 @@
         <v>18</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E12" s="2">
         <v>4</v>
@@ -912,11 +896,8 @@
       <c r="G12" s="2">
         <v>12</v>
       </c>
-      <c r="H12" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -927,7 +908,7 @@
         <v>30</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E13" s="2">
         <v>3</v>
@@ -938,11 +919,8 @@
       <c r="G13" s="2">
         <v>5</v>
       </c>
-      <c r="H13" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -953,7 +931,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E14" s="2">
         <v>4</v>
@@ -964,11 +942,8 @@
       <c r="G14" s="2">
         <v>7</v>
       </c>
-      <c r="H14" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -979,7 +954,7 @@
         <v>48</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E15" s="2">
         <v>5</v>
@@ -990,11 +965,8 @@
       <c r="G15" s="2">
         <v>21</v>
       </c>
-      <c r="H15" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -1005,7 +977,7 @@
         <v>40</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E16" s="2">
         <v>4</v>
@@ -1016,11 +988,8 @@
       <c r="G16" s="2">
         <v>21</v>
       </c>
-      <c r="H16" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -1031,7 +1000,7 @@
         <v>15</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E17" s="2">
         <v>3</v>
@@ -1042,11 +1011,8 @@
       <c r="G17" s="2">
         <v>14</v>
       </c>
-      <c r="H17" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -1057,7 +1023,7 @@
         <v>21</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18" s="2">
         <v>4</v>
@@ -1068,11 +1034,8 @@
       <c r="G18" s="2">
         <v>7</v>
       </c>
-      <c r="H18" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1080,11 +1043,10 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1093,10 +1055,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1107,13 +1069,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="A1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -1123,25 +1085,25 @@
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="12"/>
+      <c r="A3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="7">
+      <c r="D4" s="4">
         <v>30</v>
       </c>
       <c r="E4" s="2">
@@ -1150,55 +1112,55 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>27</v>
+      <c r="A5" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="2">
         <v>30</v>
       </c>
-      <c r="D5" s="8">
-        <v>15</v>
-      </c>
-      <c r="E5" s="14">
+      <c r="D5" s="16">
+        <v>20</v>
+      </c>
+      <c r="E5" s="11">
         <f t="shared" ref="E5:E11" si="0">D5/100</f>
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2">
         <v>50</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="15"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2">
         <v>80</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2">
         <v>100</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="13"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -1206,7 +1168,7 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="7">
+      <c r="D9" s="4">
         <v>25</v>
       </c>
       <c r="E9" s="2">
@@ -1216,70 +1178,56 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="7">
-        <v>5</v>
+      <c r="D10" s="4">
+        <v>10</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="7">
-        <v>10</v>
+      <c r="D11" s="4">
+        <v>15</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="7">
-        <v>15</v>
-      </c>
-      <c r="E12" s="2">
-        <f>D12/100</f>
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7">
-        <f>SUM(D4:D12)</f>
+      <c r="A12" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="4">
+        <f>SUM(D4:D11)</f>
         <v>100</v>
       </c>
-      <c r="E13" s="7">
-        <f>SUM(E4:E12)</f>
+      <c r="E12" s="4">
+        <f>SUM(E4:E11)</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="A12:C12"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="D5:D8"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="E5:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1287,12 +1235,634 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="36.140625" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>4</v>
+      </c>
+      <c r="B3" s="8" t="str">
+        <f>Dataset!B7</f>
+        <v>Amira Wahyu Anditasari</v>
+      </c>
+      <c r="C3" s="5">
+        <f>Dataset!C7</f>
+        <v>24</v>
+      </c>
+      <c r="D3" s="5">
+        <f>IF(Dataset!D7&lt;&gt;Kriteria!$B$8,IF(Dataset!D7&lt;&gt;Kriteria!$B$7,IF(Dataset!D7&lt;&gt;Kriteria!$B$6,IF(Dataset!D7&lt;&gt;Kriteria!$B$5,Kriteria!$C$5,Kriteria!$C$5),Kriteria!$C$6),Kriteria!$C$7),Kriteria!$C$8)</f>
+        <v>100</v>
+      </c>
+      <c r="E3" s="5">
+        <f>Dataset!E7</f>
+        <v>5</v>
+      </c>
+      <c r="F3" s="5">
+        <f>Dataset!F7</f>
+        <v>6</v>
+      </c>
+      <c r="G3" s="5">
+        <f>Dataset!G7</f>
+        <v>2</v>
+      </c>
+      <c r="H3" s="1">
+        <f>(C3^Kriteria!$E$4)*(D3^Kriteria!$E$5)*(E3^Kriteria!$E$9)*('Weighted Product'!F6^Kriteria!$E$10)*('Weighted Product'!G6^-Kriteria!$E$11)</f>
+        <v>9.1574698608616529</v>
+      </c>
+      <c r="I3" s="1">
+        <f>H3/$H$18</f>
+        <v>9.4575431192895937E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>12</v>
+      </c>
+      <c r="B4" s="8" t="str">
+        <f>Dataset!B15</f>
+        <v>Zakky Amaliya</v>
+      </c>
+      <c r="C4" s="5">
+        <f>Dataset!C15</f>
+        <v>48</v>
+      </c>
+      <c r="D4" s="5">
+        <f>IF(Dataset!D15&lt;&gt;Kriteria!$B$8,IF(Dataset!D15&lt;&gt;Kriteria!$B$7,IF(Dataset!D15&lt;&gt;Kriteria!$B$6,IF(Dataset!D15&lt;&gt;Kriteria!$B$5,Kriteria!$C$5,Kriteria!$C$5),Kriteria!$C$6),Kriteria!$C$7),Kriteria!$C$8)</f>
+        <v>80</v>
+      </c>
+      <c r="E4" s="5">
+        <f>Dataset!E15</f>
+        <v>5</v>
+      </c>
+      <c r="F4" s="5">
+        <f>Dataset!F15</f>
+        <v>3</v>
+      </c>
+      <c r="G4" s="5">
+        <f>Dataset!G15</f>
+        <v>21</v>
+      </c>
+      <c r="H4" s="1">
+        <f>(C4^Kriteria!$E$4)*(D4^Kriteria!$E$5)*(E4^Kriteria!$E$9)*('Weighted Product'!F14^Kriteria!$E$10)*('Weighted Product'!G14^-Kriteria!$E$11)</f>
+        <v>9.0026915624436796</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" ref="I3:I17" si="0">H4/$H$18</f>
+        <v>9.2976930238528044E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>15</v>
+      </c>
+      <c r="B5" s="8" t="str">
+        <f>Dataset!B18</f>
+        <v>Putra Wijaya</v>
+      </c>
+      <c r="C5" s="5">
+        <f>Dataset!C18</f>
+        <v>21</v>
+      </c>
+      <c r="D5" s="5">
+        <f>IF(Dataset!D18&lt;&gt;Kriteria!$B$8,IF(Dataset!D18&lt;&gt;Kriteria!$B$7,IF(Dataset!D18&lt;&gt;Kriteria!$B$6,IF(Dataset!D18&lt;&gt;Kriteria!$B$5,Kriteria!$C$5,Kriteria!$C$5),Kriteria!$C$6),Kriteria!$C$7),Kriteria!$C$8)</f>
+        <v>100</v>
+      </c>
+      <c r="E5" s="5">
+        <f>Dataset!E18</f>
+        <v>4</v>
+      </c>
+      <c r="F5" s="5">
+        <f>Dataset!F18</f>
+        <v>6</v>
+      </c>
+      <c r="G5" s="5">
+        <f>Dataset!G18</f>
+        <v>7</v>
+      </c>
+      <c r="H5" s="1">
+        <f>(C5^Kriteria!$E$4)*(D5^Kriteria!$E$5)*(E5^Kriteria!$E$9)*('Weighted Product'!F17^Kriteria!$E$10)*('Weighted Product'!G17^-Kriteria!$E$11)</f>
+        <v>7.9898989132632989</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="0"/>
+        <v>8.2517130429127727E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8" t="str">
+        <f>Dataset!B13</f>
+        <v>Anggit Putri</v>
+      </c>
+      <c r="C6" s="5">
+        <f>Dataset!C13</f>
+        <v>30</v>
+      </c>
+      <c r="D6" s="5">
+        <f>IF(Dataset!D13&lt;&gt;Kriteria!$B$8,IF(Dataset!D13&lt;&gt;Kriteria!$B$7,IF(Dataset!D13&lt;&gt;Kriteria!$B$6,IF(Dataset!D13&lt;&gt;Kriteria!$B$5,Kriteria!$C$5,Kriteria!$C$5),Kriteria!$C$6),Kriteria!$C$7),Kriteria!$C$8)</f>
+        <v>50</v>
+      </c>
+      <c r="E6" s="5">
+        <f>Dataset!E13</f>
+        <v>3</v>
+      </c>
+      <c r="F6" s="5">
+        <f>Dataset!F13</f>
+        <v>6</v>
+      </c>
+      <c r="G6" s="5">
+        <f>Dataset!G13</f>
+        <v>5</v>
+      </c>
+      <c r="H6" s="1">
+        <f>(C6^Kriteria!$E$4)*(D6^Kriteria!$E$5)*(E6^Kriteria!$E$9)*('Weighted Product'!F12^Kriteria!$E$10)*('Weighted Product'!G12^-Kriteria!$E$11)</f>
+        <v>6.1382649399193996</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="0"/>
+        <v>6.3394044674965386E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8" t="str">
+        <f>Dataset!B8</f>
+        <v>Restiana Erma Riastanti</v>
+      </c>
+      <c r="C7" s="5">
+        <f>Dataset!C8</f>
+        <v>36</v>
+      </c>
+      <c r="D7" s="5">
+        <f>IF(Dataset!D8&lt;&gt;Kriteria!$B$8,IF(Dataset!D8&lt;&gt;Kriteria!$B$7,IF(Dataset!D8&lt;&gt;Kriteria!$B$6,IF(Dataset!D8&lt;&gt;Kriteria!$B$5,Kriteria!$C$5,Kriteria!$C$5),Kriteria!$C$6),Kriteria!$C$7),Kriteria!$C$8)</f>
+        <v>30</v>
+      </c>
+      <c r="E7" s="5">
+        <f>Dataset!E8</f>
+        <v>5</v>
+      </c>
+      <c r="F7" s="5">
+        <f>Dataset!F8</f>
+        <v>6</v>
+      </c>
+      <c r="G7" s="5">
+        <f>Dataset!G8</f>
+        <v>12</v>
+      </c>
+      <c r="H7" s="1">
+        <f>(C7^Kriteria!$E$4)*(D7^Kriteria!$E$5)*(E7^Kriteria!$E$9)*('Weighted Product'!F7^Kriteria!$E$10)*('Weighted Product'!G7^-Kriteria!$E$11)</f>
+        <v>7.1284554599916943</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="0"/>
+        <v>7.3620416895877464E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="str">
+        <f>Dataset!B10</f>
+        <v>Diana</v>
+      </c>
+      <c r="C8" s="5">
+        <f>Dataset!C10</f>
+        <v>12</v>
+      </c>
+      <c r="D8" s="5">
+        <f>IF(Dataset!D10&lt;&gt;Kriteria!$B$8,IF(Dataset!D10&lt;&gt;Kriteria!$B$7,IF(Dataset!D10&lt;&gt;Kriteria!$B$6,IF(Dataset!D10&lt;&gt;Kriteria!$B$5,Kriteria!$C$5,Kriteria!$C$5),Kriteria!$C$6),Kriteria!$C$7),Kriteria!$C$8)</f>
+        <v>100</v>
+      </c>
+      <c r="E8" s="5">
+        <f>Dataset!E10</f>
+        <v>4</v>
+      </c>
+      <c r="F8" s="5">
+        <f>Dataset!F10</f>
+        <v>2</v>
+      </c>
+      <c r="G8" s="5">
+        <f>Dataset!G10</f>
+        <v>4</v>
+      </c>
+      <c r="H8" s="1">
+        <f>(C8^Kriteria!$E$4)*(D8^Kriteria!$E$5)*(E8^Kriteria!$E$9)*('Weighted Product'!F9^Kriteria!$E$10)*('Weighted Product'!G9^-Kriteria!$E$11)</f>
+        <v>6.4225968916305911</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="0"/>
+        <v>6.6330534485314965E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>11</v>
+      </c>
+      <c r="B9" s="8" t="str">
+        <f>Dataset!B14</f>
+        <v>Ari Setiawan</v>
+      </c>
+      <c r="C9" s="5">
+        <f>Dataset!C14</f>
+        <v>13</v>
+      </c>
+      <c r="D9" s="5">
+        <f>IF(Dataset!D14&lt;&gt;Kriteria!$B$8,IF(Dataset!D14&lt;&gt;Kriteria!$B$7,IF(Dataset!D14&lt;&gt;Kriteria!$B$6,IF(Dataset!D14&lt;&gt;Kriteria!$B$5,Kriteria!$C$5,Kriteria!$C$5),Kriteria!$C$6),Kriteria!$C$7),Kriteria!$C$8)</f>
+        <v>80</v>
+      </c>
+      <c r="E9" s="5">
+        <f>Dataset!E14</f>
+        <v>4</v>
+      </c>
+      <c r="F9" s="5">
+        <f>Dataset!F14</f>
+        <v>4</v>
+      </c>
+      <c r="G9" s="5">
+        <f>Dataset!G14</f>
+        <v>7</v>
+      </c>
+      <c r="H9" s="1">
+        <f>(C9^Kriteria!$E$4)*(D9^Kriteria!$E$5)*(E9^Kriteria!$E$9)*('Weighted Product'!F13^Kriteria!$E$10)*('Weighted Product'!G13^-Kriteria!$E$11)</f>
+        <v>5.5094585628318855</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="0"/>
+        <v>5.6899932747383385E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>13</v>
+      </c>
+      <c r="B10" s="8" t="str">
+        <f>Dataset!B16</f>
+        <v>Diah Daniarti</v>
+      </c>
+      <c r="C10" s="5">
+        <f>Dataset!C16</f>
+        <v>40</v>
+      </c>
+      <c r="D10" s="5">
+        <f>IF(Dataset!D16&lt;&gt;Kriteria!$B$8,IF(Dataset!D16&lt;&gt;Kriteria!$B$7,IF(Dataset!D16&lt;&gt;Kriteria!$B$6,IF(Dataset!D16&lt;&gt;Kriteria!$B$5,Kriteria!$C$5,Kriteria!$C$5),Kriteria!$C$6),Kriteria!$C$7),Kriteria!$C$8)</f>
+        <v>30</v>
+      </c>
+      <c r="E10" s="5">
+        <f>Dataset!E16</f>
+        <v>4</v>
+      </c>
+      <c r="F10" s="5">
+        <f>Dataset!F16</f>
+        <v>3</v>
+      </c>
+      <c r="G10" s="5">
+        <f>Dataset!G16</f>
+        <v>21</v>
+      </c>
+      <c r="H10" s="1">
+        <f>(C10^Kriteria!$E$4)*(D10^Kriteria!$E$5)*(E10^Kriteria!$E$9)*('Weighted Product'!F15^Kriteria!$E$10)*('Weighted Product'!G15^-Kriteria!$E$11)</f>
+        <v>7.1091019941953055</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="0"/>
+        <v>7.3420540467062409E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>2</v>
+      </c>
+      <c r="B11" s="8" t="str">
+        <f>Dataset!B5</f>
+        <v>Wahyu Indah Windarti</v>
+      </c>
+      <c r="C11" s="5">
+        <f>Dataset!C5</f>
+        <v>12</v>
+      </c>
+      <c r="D11" s="5">
+        <f>IF(Dataset!D5&lt;&gt;Kriteria!$B$8,IF(Dataset!D5&lt;&gt;Kriteria!$B$7,IF(Dataset!D5&lt;&gt;Kriteria!$B$6,IF(Dataset!D5&lt;&gt;Kriteria!$B$5,Kriteria!$C$5,Kriteria!$C$5),Kriteria!$C$6),Kriteria!$C$7),Kriteria!$C$8)</f>
+        <v>100</v>
+      </c>
+      <c r="E11" s="5">
+        <f>Dataset!E5</f>
+        <v>4</v>
+      </c>
+      <c r="F11" s="5">
+        <f>Dataset!F5</f>
+        <v>4</v>
+      </c>
+      <c r="G11" s="5">
+        <f>Dataset!G5</f>
+        <v>14</v>
+      </c>
+      <c r="H11" s="1">
+        <f>(C11^Kriteria!$E$4)*(D11^Kriteria!$E$5)*(E11^Kriteria!$E$9)*('Weighted Product'!F4^Kriteria!$E$10)*('Weighted Product'!G4^-Kriteria!$E$11)</f>
+        <v>5.2923505503538024</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="0"/>
+        <v>5.4657710364178581E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>9</v>
+      </c>
+      <c r="B12" s="8" t="str">
+        <f>Dataset!B12</f>
+        <v>Vivi Dwi K</v>
+      </c>
+      <c r="C12" s="5">
+        <f>Dataset!C12</f>
+        <v>18</v>
+      </c>
+      <c r="D12" s="5">
+        <f>IF(Dataset!D12&lt;&gt;Kriteria!$B$8,IF(Dataset!D12&lt;&gt;Kriteria!$B$7,IF(Dataset!D12&lt;&gt;Kriteria!$B$6,IF(Dataset!D12&lt;&gt;Kriteria!$B$5,Kriteria!$C$5,Kriteria!$C$5),Kriteria!$C$6),Kriteria!$C$7),Kriteria!$C$8)</f>
+        <v>50</v>
+      </c>
+      <c r="E12" s="5">
+        <f>Dataset!E12</f>
+        <v>4</v>
+      </c>
+      <c r="F12" s="5">
+        <f>Dataset!F12</f>
+        <v>3</v>
+      </c>
+      <c r="G12" s="5">
+        <f>Dataset!G12</f>
+        <v>12</v>
+      </c>
+      <c r="H12" s="1">
+        <f>(C12^Kriteria!$E$4)*(D12^Kriteria!$E$5)*(E12^Kriteria!$E$9)*('Weighted Product'!F11^Kriteria!$E$10)*('Weighted Product'!G11^-Kriteria!$E$11)</f>
+        <v>5.6908553126212809</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="0"/>
+        <v>5.8773340586992448E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>1</v>
+      </c>
+      <c r="B13" s="8" t="str">
+        <f>Dataset!B4</f>
+        <v xml:space="preserve">Isti Marlisa fitriani </v>
+      </c>
+      <c r="C13" s="5">
+        <f>Dataset!C4</f>
+        <v>12</v>
+      </c>
+      <c r="D13" s="5">
+        <f>IF(Dataset!D4&lt;&gt;Kriteria!$B$8,IF(Dataset!D4&lt;&gt;Kriteria!$B$7,IF(Dataset!D4&lt;&gt;Kriteria!$B$6,IF(Dataset!D4&lt;&gt;Kriteria!$B$5,Kriteria!$C$5,Kriteria!$C$5),Kriteria!$C$6),Kriteria!$C$7),Kriteria!$C$8)</f>
+        <v>100</v>
+      </c>
+      <c r="E13" s="5">
+        <f>Dataset!E4</f>
+        <v>4</v>
+      </c>
+      <c r="F13" s="5">
+        <f>Dataset!F4</f>
+        <v>3</v>
+      </c>
+      <c r="G13" s="5">
+        <f>Dataset!G4</f>
+        <v>14</v>
+      </c>
+      <c r="H13" s="1">
+        <f>(C13^Kriteria!$E$4)*(D13^Kriteria!$E$5)*(E13^Kriteria!$E$9)*('Weighted Product'!F3^Kriteria!$E$10)*('Weighted Product'!G3^-Kriteria!$E$11)</f>
+        <v>8.0710492486704606</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="0"/>
+        <v>8.3355225239068853E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>3</v>
+      </c>
+      <c r="B14" s="8" t="str">
+        <f>Dataset!B6</f>
+        <v>Lutfiana D</v>
+      </c>
+      <c r="C14" s="5">
+        <f>Dataset!C6</f>
+        <v>12</v>
+      </c>
+      <c r="D14" s="5">
+        <f>IF(Dataset!D6&lt;&gt;Kriteria!$B$8,IF(Dataset!D6&lt;&gt;Kriteria!$B$7,IF(Dataset!D6&lt;&gt;Kriteria!$B$6,IF(Dataset!D6&lt;&gt;Kriteria!$B$5,Kriteria!$C$5,Kriteria!$C$5),Kriteria!$C$6),Kriteria!$C$7),Kriteria!$C$8)</f>
+        <v>80</v>
+      </c>
+      <c r="E14" s="5">
+        <f>Dataset!E6</f>
+        <v>4</v>
+      </c>
+      <c r="F14" s="5">
+        <f>Dataset!F6</f>
+        <v>2</v>
+      </c>
+      <c r="G14" s="5">
+        <f>Dataset!G6</f>
+        <v>8</v>
+      </c>
+      <c r="H14" s="1">
+        <f>(C14^Kriteria!$E$4)*(D14^Kriteria!$E$5)*(E14^Kriteria!$E$9)*('Weighted Product'!F5^Kriteria!$E$10)*('Weighted Product'!G5^-Kriteria!$E$11)</f>
+        <v>6.3964320115835447</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="0"/>
+        <v>6.606031194020609E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>8</v>
+      </c>
+      <c r="B15" s="8" t="str">
+        <f>Dataset!B11</f>
+        <v>Ezza Zaping Aniayya</v>
+      </c>
+      <c r="C15" s="5">
+        <f>Dataset!C11</f>
+        <v>6</v>
+      </c>
+      <c r="D15" s="5">
+        <f>IF(Dataset!D11&lt;&gt;Kriteria!$B$8,IF(Dataset!D11&lt;&gt;Kriteria!$B$7,IF(Dataset!D11&lt;&gt;Kriteria!$B$6,IF(Dataset!D11&lt;&gt;Kriteria!$B$5,Kriteria!$C$5,Kriteria!$C$5),Kriteria!$C$6),Kriteria!$C$7),Kriteria!$C$8)</f>
+        <v>100</v>
+      </c>
+      <c r="E15" s="5">
+        <f>Dataset!E11</f>
+        <v>4</v>
+      </c>
+      <c r="F15" s="5">
+        <f>Dataset!F11</f>
+        <v>2</v>
+      </c>
+      <c r="G15" s="5">
+        <f>Dataset!G11</f>
+        <v>5</v>
+      </c>
+      <c r="H15" s="1">
+        <f>(C15^Kriteria!$E$4)*(D15^Kriteria!$E$5)*(E15^Kriteria!$E$9)*('Weighted Product'!F10^Kriteria!$E$10)*('Weighted Product'!G10^-Kriteria!$E$11)</f>
+        <v>4.298724416882119</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="0"/>
+        <v>4.4395856222649119E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="8" t="str">
+        <f>Dataset!B17</f>
+        <v>Puput Indah Puspitasari</v>
+      </c>
+      <c r="C16" s="5">
+        <f>Dataset!C17</f>
+        <v>15</v>
+      </c>
+      <c r="D16" s="5">
+        <f>IF(Dataset!D17&lt;&gt;Kriteria!$B$8,IF(Dataset!D17&lt;&gt;Kriteria!$B$7,IF(Dataset!D17&lt;&gt;Kriteria!$B$6,IF(Dataset!D17&lt;&gt;Kriteria!$B$5,Kriteria!$C$5,Kriteria!$C$5),Kriteria!$C$6),Kriteria!$C$7),Kriteria!$C$8)</f>
+        <v>30</v>
+      </c>
+      <c r="E16" s="5">
+        <f>Dataset!E17</f>
+        <v>3</v>
+      </c>
+      <c r="F16" s="5">
+        <f>Dataset!F17</f>
+        <v>3</v>
+      </c>
+      <c r="G16" s="5">
+        <f>Dataset!G17</f>
+        <v>14</v>
+      </c>
+      <c r="H16" s="1">
+        <f>(C16^Kriteria!$E$4)*(D16^Kriteria!$E$5)*(E16^Kriteria!$E$9)*('Weighted Product'!F16^Kriteria!$E$10)*('Weighted Product'!G16^-Kriteria!$E$11)</f>
+        <v>4.3987052587861282</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="0"/>
+        <v>4.5428426504372184E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>6</v>
+      </c>
+      <c r="B17" s="8" t="str">
+        <f>Dataset!B9</f>
+        <v>Muhammad Fahreza</v>
+      </c>
+      <c r="C17" s="5">
+        <f>Dataset!C9</f>
+        <v>8</v>
+      </c>
+      <c r="D17" s="5">
+        <f>IF(Dataset!D9&lt;&gt;Kriteria!$B$8,IF(Dataset!D9&lt;&gt;Kriteria!$B$7,IF(Dataset!D9&lt;&gt;Kriteria!$B$6,IF(Dataset!D9&lt;&gt;Kriteria!$B$5,Kriteria!$C$5,Kriteria!$C$5),Kriteria!$C$6),Kriteria!$C$7),Kriteria!$C$8)</f>
+        <v>30</v>
+      </c>
+      <c r="E17" s="5">
+        <f>Dataset!E9</f>
+        <v>3</v>
+      </c>
+      <c r="F17" s="5">
+        <f>Dataset!F9</f>
+        <v>4</v>
+      </c>
+      <c r="G17" s="5">
+        <f>Dataset!G9</f>
+        <v>5</v>
+      </c>
+      <c r="H17" s="1">
+        <f>(C17^Kriteria!$E$4)*(D17^Kriteria!$E$5)*(E17^Kriteria!$E$9)*('Weighted Product'!F8^Kriteria!$E$10)*('Weighted Product'!G8^-Kriteria!$E$11)</f>
+        <v>4.2210992288186935</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="0"/>
+        <v>4.3594168011377478E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="1">
+        <f>SUM(H3:H17)</f>
+        <v>96.827154212853529</v>
+      </c>
+      <c r="I18" s="1">
+        <f>SUM(I3:I17)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A3:I17">
+    <sortCondition descending="1" ref="I3:I17"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="A18:G18"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>